--- a/biology/Zoologie/Heterospilus/Heterospilus.xlsx
+++ b/biology/Zoologie/Heterospilus/Heterospilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterospilus est un genre d'insectes de la famille des Braconidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (23 avril 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (23 avril 2023) :
 Heterospilus achi Marsh, Wild &amp; Whitfield, 2013
 Heterospilus achterbergi Marsh, Wild &amp; Whitfield, 2013
 Heterospilus aciculatus (Provancher, 1888)
@@ -975,10 +989,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Heterospilus a été créé en 1836 par l'entomologiste irlandais Alexander Henry Haliday[1] (1806-1870) initialement comme un sous-genre du genre Rogas[2].
-Heterospilus a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Heterospilus a été créé en 1836 par l'entomologiste irlandais Alexander Henry Haliday (1806-1870) initialement comme un sous-genre du genre Rogas.
+Heterospilus a pour synonymes :
 Eoheterospilus Belokobylskij &amp; Maeto, 2009
 Hetrospilus Haliday, 1836</t>
         </is>
@@ -1008,7 +1024,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) Alexander Henry Haliday, « Essay on parasitic Hymenoptera », Entomological Magazine, Londres, Westley &amp; Davis (d) et inconnu, vol. 4,‎ 1836, p. 38-59 (ISSN 1359-1916, OCLC 731006816 et 1568005, lire en ligne)</t>
         </is>
